--- a/biology/Zoologie/Cassique_casqué/Cassique_casqué.xlsx
+++ b/biology/Zoologie/Cassique_casqué/Cassique_casqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassique_casqu%C3%A9</t>
+          <t>Cassique_casqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacicus oseryi
 Le Cassique casqué (Cacicus oseryi) est une espèce d'oiseaux d'Amérique du Sud de la famille des ictéridés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassique_casqu%C3%A9</t>
+          <t>Cassique_casqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>À la suite de la publication de l'étude phylogénique de Powell et al. (2014), le Congrès ornithologique international (classification version 4.3, 2014) bouleverse la classification de la famille des Icteridae pour suivre ses conclusions. Cette espèce est transférée du genre monotypique Clypicterus Bonaparte, 1850 vers le genre Cacicus.
 synonymes
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassique_casqu%C3%A9</t>
+          <t>Cassique_casqué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cassique_casqu%C3%A9</t>
+          <t>Cassique_casqué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce Cassique niche en colonie de 15 à 25 nids. Les colonies s’établissent dans un arbre dont la cime est généralement isolée des arbres avoisinants, vraisemblablement afin de réduire la probabilité que les singes atteignent et pillent les nids.  Le Sapajou de Guyane et le Toucan à bec rouge sont des prédateurs connus des nids du Cassique casqué.  Dans certaines régions, il niche dans les Cecropia où il obtient une protection contre les prédateurs venant des fourmis agressives vivant en symbiose avec le Cecropia[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce Cassique niche en colonie de 15 à 25 nids. Les colonies s’établissent dans un arbre dont la cime est généralement isolée des arbres avoisinants, vraisemblablement afin de réduire la probabilité que les singes atteignent et pillent les nids.  Le Sapajou de Guyane et le Toucan à bec rouge sont des prédateurs connus des nids du Cassique casqué.  Dans certaines régions, il niche dans les Cecropia où il obtient une protection contre les prédateurs venant des fourmis agressives vivant en symbiose avec le Cecropia.
 </t>
         </is>
       </c>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cassique_casqu%C3%A9</t>
+          <t>Cassique_casqué</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,9 +621,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peu commun et localisé, le Cassique casqué est un résident des forêts des basses terres (généralement en deçà de 400 m) dans l’est du Pérou et de l’Équateur ainsi qu’à l’extrême ouest du Brésil[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu commun et localisé, le Cassique casqué est un résident des forêts des basses terres (généralement en deçà de 400 m) dans l’est du Pérou et de l’Équateur ainsi qu’à l’extrême ouest du Brésil.
 </t>
         </is>
       </c>
